--- a/[Data] WES_PASS/Patient-52-indels.xlsx
+++ b/[Data] WES_PASS/Patient-52-indels.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="364">
   <si>
     <t>NG.8132_52B_lib74092_3782_7</t>
   </si>
@@ -43,679 +43,1069 @@
     <t>GBM driver</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>chr1_1452486</t>
   </si>
   <si>
-    <t>ATAD3A</t>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_43731277   </t>
   </si>
   <si>
     <t>chr1_11918927</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t xml:space="preserve">chr5_43731283   </t>
   </si>
   <si>
     <t>chr1_39917012</t>
   </si>
   <si>
-    <t>MACF1</t>
+    <t xml:space="preserve">chr6_168722505   </t>
   </si>
   <si>
     <t>chr1_46497340</t>
   </si>
   <si>
-    <t>MAST2</t>
+    <t xml:space="preserve">chr7_65171408   </t>
   </si>
   <si>
     <t>chr1_47015453</t>
   </si>
   <si>
-    <t>KNCN:MKNK1-AS1</t>
+    <t>LAMB1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_107621305   </t>
   </si>
   <si>
     <t>chr1_67356549</t>
   </si>
   <si>
-    <t>WDR78</t>
+    <t xml:space="preserve">chr9_66457019   </t>
   </si>
   <si>
     <t>chr1_110293791</t>
   </si>
   <si>
-    <t>EPS8L3:RP4-735C1.4:GSTM5</t>
+    <t>PSG4 intron_variant:PSG4 intron_variant&amp;NMD_transcript_variant:PSG4 intron_variant&amp;non_coding_transcript_variant:PSG4 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_43708733   </t>
   </si>
   <si>
     <t>chr1_111997060</t>
   </si>
   <si>
-    <t>ATP5F1</t>
+    <t xml:space="preserve">chr19_43708752   </t>
   </si>
   <si>
     <t>chr1_145017832</t>
   </si>
   <si>
-    <t>PDE4DIP</t>
+    <t>APOBEC3G intron_variant:APOBEC3G intron_variant&amp;non_coding_transcript_variant:APOBEC3G non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_39476049   </t>
   </si>
   <si>
     <t>chr1_153745862</t>
   </si>
   <si>
-    <t>INTS3</t>
+    <t xml:space="preserve">chrX_152870437   </t>
   </si>
   <si>
     <t>chr1_155587035</t>
   </si>
   <si>
-    <t>RP11-29H23.5:MSTO2P:MSTO1</t>
+    <t xml:space="preserve">chrX_152870497   </t>
   </si>
   <si>
     <t>chr1_155587051</t>
   </si>
   <si>
+    <t xml:space="preserve">chrX_152870505   </t>
+  </si>
+  <si>
     <t>chr1_158064703</t>
   </si>
   <si>
-    <t>KIRREL</t>
+    <t>MTMR6 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr13_25831641   </t>
   </si>
   <si>
     <t>chr1_210407028</t>
   </si>
   <si>
-    <t>SERTAD4-AS1:SERTAD4</t>
+    <t>CIR1 intron_variant:CIR1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_175246386   </t>
   </si>
   <si>
     <t>chr2_4672789</t>
   </si>
   <si>
+    <t>SLC2A14 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_7966844   </t>
+  </si>
+  <si>
     <t>chr2_4672834</t>
   </si>
   <si>
+    <t>ZNF98 intron_variant:ZNF209P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:ZNF98 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_22655023   </t>
+  </si>
+  <si>
     <t>chr2_86310393</t>
   </si>
   <si>
-    <t>POLR1A</t>
+    <t xml:space="preserve">chr16_21363460   </t>
   </si>
   <si>
     <t>chr2_88004227</t>
   </si>
   <si>
-    <t>AC093616.4</t>
+    <t>KNCN intron_variant:MKNK1-AS1 intron_variant&amp;non_coding_transcript_variant:KNCN intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_47015453   </t>
   </si>
   <si>
     <t>chr2_102632609</t>
   </si>
   <si>
-    <t>IL1R2</t>
+    <t>C3orf27 frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_128292318   </t>
   </si>
   <si>
     <t>chr2_175246386</t>
   </si>
   <si>
-    <t>CIR1</t>
+    <t>RP11-415I12.3 intron_variant&amp;non_coding_transcript_variant:DPY19L2 intron_variant:DPY19L2 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_64041268   </t>
   </si>
   <si>
     <t>chr2_191155233</t>
   </si>
   <si>
-    <t>HIBCH</t>
+    <t>SDHAP1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_195706799   </t>
   </si>
   <si>
     <t>chr2_233393768</t>
   </si>
   <si>
-    <t>CHRND</t>
+    <t>PABPC1P3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_73803279   </t>
   </si>
   <si>
     <t>chr3_52181249</t>
   </si>
   <si>
-    <t>POC1A</t>
+    <t>PSG4 intron_variant:PSG4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_43697681   </t>
   </si>
   <si>
     <t>chr3_58723031</t>
   </si>
   <si>
-    <t>C3orf67</t>
+    <t>AP005901.1 intron_variant&amp;non_coding_transcript_variant:AP005901.1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_15325567   </t>
   </si>
   <si>
     <t>chr3_128292318</t>
   </si>
   <si>
-    <t>C3orf27</t>
+    <t>COL24A1 synonymous_variant:COL24A1 synonymous_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_86591620   </t>
   </si>
   <si>
     <t>chr3_142607822</t>
   </si>
   <si>
-    <t>PCOLCE2</t>
+    <t>RP11-315I20.1 intron_variant&amp;non_coding_transcript_variant:LIX1L intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_145497951   </t>
   </si>
   <si>
     <t>chr3_193201570</t>
   </si>
   <si>
-    <t>ATP13A4</t>
+    <t>KIRREL frameshift_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_158064703   </t>
   </si>
   <si>
     <t>chr4_71384741</t>
   </si>
   <si>
-    <t>AMTN</t>
+    <t>NEB splice_region_variant&amp;intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_152529197   </t>
   </si>
   <si>
     <t>chr4_88053565</t>
   </si>
   <si>
-    <t>AFF1</t>
+    <t xml:space="preserve">chr2_170013886   </t>
   </si>
   <si>
     <t>chr4_128748719</t>
   </si>
   <si>
-    <t>HSPA4L</t>
+    <t>FSIP2 missense_variant:AC008174.3 intron_variant&amp;non_coding_transcript_variant:FSIP2 missense_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_186660349   </t>
   </si>
   <si>
     <t>chr4_189552412</t>
   </si>
   <si>
-    <t>LINC01060:RP11-756P10.1</t>
+    <t>KRBOX1 splice_region_variant&amp;intron_variant:KRBOX1 splice_region_variant&amp;intron_variant&amp;non_coding_transcript_variant:KRBOX1 splice_region_variant&amp;intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_42983443   </t>
   </si>
   <si>
     <t>chr5_43731271</t>
   </si>
   <si>
+    <t xml:space="preserve">chr4_13601122   </t>
+  </si>
+  <si>
     <t>chr5_43731277</t>
   </si>
   <si>
+    <t>PDS5A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_39900513   </t>
+  </si>
+  <si>
     <t>chr5_60628181</t>
   </si>
   <si>
+    <t>CCSER1 intron_variant:CCSER1 intron_variant&amp;NMD_transcript_variant:CCSER1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_91644928   </t>
+  </si>
+  <si>
     <t>chr5_151167457</t>
   </si>
   <si>
-    <t>G3BP1</t>
+    <t>DMXL1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_118533397   </t>
   </si>
   <si>
     <t>chr5_167653067</t>
   </si>
   <si>
-    <t>TENM2</t>
+    <t>PRR16 5_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_119800165   </t>
   </si>
   <si>
     <t>chr6_26458905</t>
   </si>
   <si>
-    <t>BTN2A1</t>
+    <t xml:space="preserve">chr6_50011702   </t>
   </si>
   <si>
     <t>chr6_29720804</t>
   </si>
   <si>
+    <t>COL21A1 intron_variant:COL21A1 intron_variant&amp;NMD_transcript_variant:COL21A1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_55926300   </t>
+  </si>
+  <si>
     <t>chr6_30123292</t>
   </si>
   <si>
-    <t>TRIM10</t>
+    <t>TBX18 missense_variant:TBX18 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_85453989   </t>
   </si>
   <si>
     <t>chr6_55926300</t>
   </si>
   <si>
-    <t>COL21A1</t>
+    <t>PDE1C missense_variant:PDE1C non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_31918700   </t>
   </si>
   <si>
     <t>chr6_80878508</t>
   </si>
   <si>
-    <t>BCKDHB</t>
+    <t>PCLO intron_variant:PCLO intron_variant&amp;NMD_transcript_variant:PCLO intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_82478074   </t>
   </si>
   <si>
     <t>chr6_151140704</t>
   </si>
   <si>
-    <t>PLEKHG1</t>
+    <t>MCPH1 intron_variant&amp;non_coding_transcript_variant:ANGPT2 intron_variant:MCPH1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_6361481   </t>
   </si>
   <si>
     <t>chr6_165108826</t>
   </si>
   <si>
+    <t>ANK1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_41518209   </t>
+  </si>
+  <si>
+    <t>ANK1</t>
+  </si>
+  <si>
+    <t>intron_variant</t>
+  </si>
+  <si>
     <t>chr6_165108853</t>
   </si>
   <si>
+    <t>MTFR1 intron_variant&amp;non_coding_transcript_variant:MTFR1 intron_variant&amp;NMD_transcript_variant:MTFR1 intron_variant:MTFR1 splice_donor_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_66594316   </t>
+  </si>
+  <si>
     <t>chr6_168290115</t>
   </si>
   <si>
-    <t>MLLT4</t>
+    <t xml:space="preserve">chr8_73480218   </t>
   </si>
   <si>
     <t>chr6_168722505</t>
   </si>
   <si>
+    <t>ZNF704 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr8_81733866   </t>
+  </si>
+  <si>
     <t>chr6_169115207</t>
   </si>
   <si>
+    <t>SLC44A1 intron_variant:SLC44A1 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_108120810   </t>
+  </si>
+  <si>
     <t>chr7_5770144</t>
   </si>
   <si>
-    <t>RNF216</t>
+    <t>OR52A4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_5141954   </t>
   </si>
   <si>
     <t>chr7_38785340</t>
   </si>
   <si>
-    <t>VPS41</t>
+    <t>C11orf48 intron_variant:METTL12 intron_variant&amp;non_coding_transcript_variant:METTL12 intron_variant:METTL12 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:SNORA57 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_62432912   </t>
   </si>
   <si>
     <t>chr7_64663873</t>
   </si>
   <si>
-    <t>INTS4L1</t>
+    <t>MMP8 3_prime_UTR_variant&amp;NMD_transcript_variant:MMP8 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_102593179   </t>
   </si>
   <si>
     <t>chr7_65171408</t>
   </si>
   <si>
+    <t>ARHGAP20 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_110501420   </t>
+  </si>
+  <si>
     <t>chr7_80166667</t>
   </si>
   <si>
+    <t xml:space="preserve">chr12_13720077   </t>
+  </si>
+  <si>
     <t>chr7_92875594</t>
   </si>
   <si>
-    <t>CCDC132</t>
+    <t>OAS1 intron_variant&amp;non_coding_transcript_variant:OAS1 intron_variant:RP1-71H24.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr12_113354198   </t>
   </si>
   <si>
     <t>chr7_96639505</t>
   </si>
   <si>
-    <t>DLX6-AS1:DLX6</t>
+    <t xml:space="preserve">chr13_46065323   </t>
   </si>
   <si>
     <t>chr7_107621305</t>
   </si>
   <si>
-    <t>LAMB1</t>
+    <t>EPB42 synonymous_variant:EPB42 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_43498739   </t>
   </si>
   <si>
     <t>chr7_132937913</t>
   </si>
   <si>
-    <t>EXOC4</t>
+    <t xml:space="preserve">chr16_2226476   </t>
   </si>
   <si>
     <t>chr7_138957240</t>
   </si>
   <si>
-    <t>UBN2</t>
+    <t>CCNYL3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_34290536   </t>
   </si>
   <si>
     <t>chr7_146471538</t>
   </si>
   <si>
+    <t xml:space="preserve">chr17_3119950   </t>
+  </si>
+  <si>
     <t>chr7_157462117</t>
   </si>
   <si>
-    <t>PTPRN2</t>
+    <t>UBBP4 missense_variant:UBBP4 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_21731528   </t>
   </si>
   <si>
     <t>chr8_21829687</t>
   </si>
   <si>
-    <t>XPO7</t>
+    <t>GREB1L synonymous_variant:GREB1L non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:RP11-296E23.1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_18964282   </t>
   </si>
   <si>
     <t>chr8_66594316</t>
   </si>
   <si>
-    <t>MTFR1</t>
+    <t>PLEKHJ1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:PLEKHJ1 intron_variant:PLEKHJ1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_2234159   </t>
   </si>
   <si>
     <t>chr8_81733866</t>
   </si>
   <si>
-    <t>ZNF704</t>
+    <t>ZNF682 frameshift_variant:ZNF682 intron_variant:ZNF682 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_20117764   </t>
   </si>
   <si>
     <t>chr8_124333146</t>
   </si>
   <si>
-    <t>ATAD2</t>
+    <t>FFAR2 intron_variant&amp;non_coding_transcript_variant:FFAR2 3_prime_UTR_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_35941705   </t>
   </si>
   <si>
     <t>chr8_124382376</t>
   </si>
   <si>
+    <t>EHD2 3_prime_UTR_variant:EHD2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr19_48245018   </t>
+  </si>
+  <si>
     <t>chr9_14797413</t>
   </si>
   <si>
-    <t>FREM1</t>
+    <t xml:space="preserve">chr19_53805515   </t>
   </si>
   <si>
     <t>chr9_66456976</t>
   </si>
   <si>
+    <t xml:space="preserve">chr20_29929515   </t>
+  </si>
+  <si>
     <t>chr9_66457019</t>
   </si>
   <si>
+    <t>DEFB119 intron_variant&amp;non_coding_transcript_variant:DEFB119 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_29977082   </t>
+  </si>
+  <si>
     <t>chr9_66457041</t>
   </si>
   <si>
+    <t>ASXL1 missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_31021194   </t>
+  </si>
+  <si>
+    <t>ASXL1</t>
+  </si>
+  <si>
+    <t>missense_variant</t>
+  </si>
+  <si>
     <t>chr9_86004828</t>
   </si>
   <si>
-    <t>FRMD3</t>
+    <t>CPSF1P1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr22_32668338   </t>
   </si>
   <si>
     <t>chr9_108120810</t>
   </si>
   <si>
-    <t>SLC44A1</t>
+    <t xml:space="preserve">chrX_8467423   </t>
   </si>
   <si>
     <t>chr9_132571511</t>
   </si>
   <si>
-    <t>TOR1B</t>
+    <t>ATP7A missense_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_77289223   </t>
   </si>
   <si>
     <t>chr9_135690205</t>
   </si>
   <si>
-    <t>AK8</t>
+    <t>PCDH11X intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_91147552   </t>
   </si>
   <si>
     <t>chr10_36811706</t>
   </si>
   <si>
-    <t>NAMPTL</t>
+    <t xml:space="preserve">chrY_14551941   </t>
   </si>
   <si>
     <t>chr11_6191508</t>
   </si>
   <si>
-    <t>RP11-290F24.3:OR52B2</t>
+    <t xml:space="preserve">chr20_25899994   </t>
   </si>
   <si>
     <t>chr11_6191513</t>
   </si>
   <si>
+    <t xml:space="preserve">chr8_143997977   </t>
+  </si>
+  <si>
     <t>chr11_30410531</t>
   </si>
   <si>
+    <t xml:space="preserve">chr20_22714225   </t>
+  </si>
+  <si>
     <t>chr11_51411304</t>
   </si>
   <si>
+    <t xml:space="preserve">chr20_22714290   </t>
+  </si>
+  <si>
     <t>chr11_64943049</t>
   </si>
   <si>
+    <t>WDR78 intron_variant:WDR78 3_prime_UTR_variant&amp;NMD_transcript_variant:WDR78 intron_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_67356549   </t>
+  </si>
+  <si>
     <t>chr11_65601772</t>
   </si>
   <si>
-    <t>SNX32:CFL1</t>
+    <t xml:space="preserve">chr20_22714305   </t>
   </si>
   <si>
     <t>chr11_118305187</t>
   </si>
   <si>
+    <t>ANKRD30B intron_variant&amp;non_coding_transcript_variant:ANKRD30B intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_14842740   </t>
+  </si>
+  <si>
     <t>chr12_6463820</t>
   </si>
   <si>
-    <t>SCNN1A</t>
+    <t>NEB intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_152474003   </t>
   </si>
   <si>
     <t>chr12_7966844</t>
   </si>
   <si>
-    <t>SLC2A14</t>
+    <t>GMEB2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr20_62245802   </t>
   </si>
   <si>
     <t>chr12_8492934</t>
   </si>
   <si>
-    <t>LINC00937:RP11-113C12.4</t>
+    <t xml:space="preserve">chr1_12837832   </t>
   </si>
   <si>
     <t>chr12_62789933</t>
   </si>
   <si>
-    <t>USP15</t>
+    <t xml:space="preserve">chr3_101431428   </t>
   </si>
   <si>
     <t>chr12_64041268</t>
   </si>
   <si>
-    <t>RP11-415I12.3:DPY19L2</t>
+    <t xml:space="preserve">chr4_69481522   </t>
   </si>
   <si>
     <t>chr12_72287220</t>
   </si>
   <si>
-    <t>TBC1D15</t>
+    <t>ALPK1 intron_variant&amp;NMD_transcript_variant:ALPK1 intron_variant:ALPK1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_113351478   </t>
   </si>
   <si>
     <t>chr12_133182783</t>
   </si>
   <si>
-    <t>LRCOL1</t>
+    <t>TAC1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:TAC1 synonymous_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_97362020   </t>
   </si>
   <si>
     <t>chr13_25831641</t>
   </si>
   <si>
-    <t>MTMR6</t>
+    <t>KMT2E intron_variant:KMT2E intron_variant&amp;NMD_transcript_variant:KMT2E non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_104702502   </t>
   </si>
   <si>
     <t>chr14_37194681</t>
   </si>
   <si>
-    <t>SLC25A21</t>
+    <t>CCBE1 missense_variant:CCBE1 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_57115265   </t>
   </si>
   <si>
     <t>chr15_25328181</t>
   </si>
   <si>
-    <t>SNHG14</t>
+    <t>ATP13A4 intron_variant&amp;non_coding_transcript_variant:ATP13A4 intron_variant&amp;NMD_transcript_variant:ATP13A4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_193201570   </t>
   </si>
   <si>
     <t>chr15_45444257</t>
   </si>
   <si>
-    <t>DUOX1</t>
+    <t xml:space="preserve">chr18_14392844   </t>
   </si>
   <si>
     <t>chr15_72106086</t>
   </si>
   <si>
-    <t>NR2E3</t>
+    <t>UGGT1 intron_variant&amp;non_coding_transcript_variant:UGGT1 intron_variant&amp;NMD_transcript_variant:UGGT1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_128903651   </t>
   </si>
   <si>
     <t>chr16_13307325</t>
   </si>
   <si>
-    <t>SHISA9</t>
+    <t>ANKRD30B missense_variant:ANKRD30B 3_prime_UTR_variant&amp;NMD_transcript_variant:ANKRD30B intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr18_14803745   </t>
   </si>
   <si>
     <t>chr16_29888367</t>
   </si>
   <si>
-    <t>SEZ6L2</t>
+    <t>WSB1 intron_variant:WSB1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_25638658   </t>
   </si>
   <si>
     <t>chr16_31428068</t>
   </si>
   <si>
+    <t xml:space="preserve">chr18_14644789   </t>
+  </si>
+  <si>
     <t>chr16_70993881</t>
   </si>
   <si>
-    <t>HYDIN</t>
+    <t>RP11-29H23.5 intron_variant&amp;non_coding_transcript_variant:MSTO2P intron_variant&amp;non_coding_transcript_variant:MSTO1 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_155587051   </t>
   </si>
   <si>
     <t>chr17_15640806</t>
   </si>
   <si>
-    <t>ZNF286A:TBC1D26:AC005324.6</t>
+    <t>TENM2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr5_167653067   </t>
   </si>
   <si>
     <t>chr17_25638658</t>
   </si>
   <si>
-    <t>WSB1</t>
+    <t xml:space="preserve">chr14_19401843   </t>
   </si>
   <si>
     <t>chr17_28846818</t>
   </si>
   <si>
-    <t>GOSR1</t>
+    <t>AC022596.6 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_16725483   </t>
   </si>
   <si>
     <t>chr17_57685253</t>
   </si>
   <si>
-    <t>DHX40</t>
+    <t>ANKRD36 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_97790185   </t>
   </si>
   <si>
     <t>chr17_72470098</t>
   </si>
   <si>
-    <t>CD300A</t>
+    <t>C2orf27A non_coding_transcript_exon_variant&amp;non_coding_transcript_variant:C2orf27A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_132491447   </t>
   </si>
   <si>
     <t>chr18_196523</t>
   </si>
   <si>
-    <t>USP14</t>
+    <t>FRG1 intron_variant:FRG1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_190878397   </t>
   </si>
   <si>
     <t>chr18_44266287</t>
   </si>
   <si>
-    <t>ST8SIA5</t>
+    <t xml:space="preserve">chr9_34521250   </t>
   </si>
   <si>
     <t>chr19_20117764</t>
   </si>
   <si>
-    <t>ZNF682</t>
+    <t>MPP3 intron_variant:MPP3 intron_variant&amp;NMD_transcript_variant:MPP3 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr17_41888041   </t>
   </si>
   <si>
     <t>chr19_22655023</t>
   </si>
   <si>
-    <t>ZNF98:ZNF209P</t>
+    <t xml:space="preserve">chr18_15272142   </t>
   </si>
   <si>
     <t>chr19_35941705</t>
   </si>
   <si>
-    <t>FFAR2</t>
+    <t xml:space="preserve">chr19_53804034   </t>
   </si>
   <si>
     <t>chr19_49392588</t>
   </si>
   <si>
-    <t>TULP2</t>
+    <t>POLR1A intron_variant&amp;non_coding_transcript_variant:POLR1A intron_variant&amp;NMD_transcript_variant:POLR1A intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr2_86310393   </t>
   </si>
   <si>
     <t>chr19_54194437</t>
   </si>
   <si>
+    <t>TBC1D2 intron_variant:TBC1D2 intron_variant&amp;non_coding_transcript_variant:RP11-270F18.2 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr9_100997686   </t>
+  </si>
+  <si>
     <t>chr20_5545484</t>
   </si>
   <si>
-    <t>GPCPD1</t>
+    <t>ETFA intron_variant:ETFA intron_variant&amp;non_coding_transcript_variant:ETFA intron_variant&amp;NMD_transcript_variant:TYRO3P non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_76552205   </t>
   </si>
   <si>
     <t>chr20_6759758</t>
   </si>
   <si>
-    <t>BMP2</t>
+    <t>ARRDC4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr15_98513365   </t>
   </si>
   <si>
     <t>chr20_22714225</t>
   </si>
   <si>
+    <t>SEZ6L2 intron_variant:SEZ6L2 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_29888367   </t>
+  </si>
+  <si>
     <t>chr20_22714254</t>
   </si>
   <si>
+    <t>CDH1 intron_variant&amp;NMD_transcript_variant:CDH1 intron_variant:CDH1 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr16_68847612   </t>
+  </si>
+  <si>
+    <t>CDH1:CDH1:CDH1</t>
+  </si>
+  <si>
+    <t>intron_variant&amp;NMD_transcript_variant:intron_variant:intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
     <t>chr20_22714305</t>
   </si>
   <si>
+    <t xml:space="preserve">chr20_22714347   </t>
+  </si>
+  <si>
     <t>chr20_22714329</t>
   </si>
   <si>
+    <t xml:space="preserve">chr1_145079271   </t>
+  </si>
+  <si>
     <t>chr20_22714347</t>
   </si>
   <si>
+    <t>INTS3 3_prime_UTR_variant:INTS3 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr1_153745862   </t>
+  </si>
+  <si>
     <t>chr20_43385502</t>
   </si>
   <si>
-    <t>RIMS4</t>
+    <t xml:space="preserve">chr11_118305187   </t>
   </si>
   <si>
     <t>chr20_62245802</t>
   </si>
   <si>
-    <t>GMEB2</t>
+    <t>PRKX intron_variant:PRKX intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chrX_3544398   </t>
   </si>
   <si>
     <t>chr22_20920813</t>
   </si>
   <si>
-    <t>MED15</t>
+    <t>CNTN4-AS1 intron_variant&amp;non_coding_transcript_variant:CNTN4 intron_variant:CNTN4 intron_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_3084859   </t>
   </si>
   <si>
     <t>chr22_23247019</t>
   </si>
   <si>
+    <t>BEND4 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr4_42119881   </t>
+  </si>
+  <si>
     <t>chr22_26105563</t>
   </si>
   <si>
-    <t>ADRBK2</t>
+    <t>MYH16 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_98885745   </t>
   </si>
   <si>
     <t>chr22_32668338</t>
   </si>
   <si>
-    <t>CPSF1P1</t>
+    <t>PTCHD3P1 intron_variant&amp;non_coding_transcript_variant:SVIL synonymous_variant:SVIL non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr10_29769536   </t>
   </si>
   <si>
     <t>chr22_39476049</t>
   </si>
   <si>
-    <t>APOBEC3G</t>
+    <t>TRPM5 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr11_2431824   </t>
   </si>
   <si>
     <t>chrX_38079975</t>
   </si>
   <si>
-    <t>SRPX:TM4SF2</t>
+    <t xml:space="preserve">chr21_31933492   </t>
   </si>
   <si>
     <t>chrX_38080002</t>
   </si>
   <si>
+    <t xml:space="preserve">chr22_32667870   </t>
+  </si>
+  <si>
     <t>chrX_48306119</t>
   </si>
   <si>
-    <t>AF196972.4</t>
+    <t xml:space="preserve">chrX_48306125   </t>
   </si>
   <si>
     <t>chrX_73803279</t>
   </si>
   <si>
-    <t>PABPC1P3</t>
+    <t>HLA-V intron_variant&amp;non_coding_transcript_variant:HCG4 non_coding_transcript_exon_variant&amp;non_coding_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_29759260   </t>
   </si>
   <si>
     <t>chrX_152870406</t>
   </si>
   <si>
+    <t xml:space="preserve">chrY_14089822   </t>
+  </si>
+  <si>
     <t>chrX_152870437</t>
   </si>
   <si>
+    <t>C3orf67 intron_variant&amp;NMD_transcript_variant:C3orf67 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr3_58723031   </t>
+  </si>
+  <si>
     <t>chrX_152870497</t>
   </si>
   <si>
+    <t>BTN2A1 intron_variant:BTN2A1 inframe_deletion:BTN2A1 protein_altering_variant:BTN2A1 inframe_deletion&amp;NMD_transcript_variant:BTN2A1 protein_altering_variant&amp;NMD_transcript_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr6_26458905   </t>
+  </si>
+  <si>
     <t>chrY_5441577</t>
   </si>
   <si>
-    <t>PCDH11Y:KRT18P10</t>
+    <t>UBN2 intron_variant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chr7_138957240   </t>
   </si>
 </sst>
 </file>
@@ -1047,13 +1437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1081,10 +1471,16 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1108,12 +1504,15 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1137,12 +1536,15 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1166,12 +1568,15 @@
         <v>0.3</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1195,12 +1600,15 @@
         <v>0.0172413793103448</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1224,12 +1632,15 @@
         <v>0.12</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1253,12 +1664,15 @@
         <v>0.0256410256410256</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1282,12 +1696,15 @@
         <v>0.417910447761194</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1311,12 +1728,15 @@
         <v>0.0625</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1340,12 +1760,15 @@
         <v>0.0277777777777778</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1369,12 +1792,15 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1398,12 +1824,15 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1427,12 +1856,15 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1456,12 +1888,15 @@
         <v>0.396825396825397</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1485,12 +1920,15 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>42</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1514,12 +1952,15 @@
         <v>0.04</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1543,12 +1984,15 @@
         <v>0.133333333333333</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1572,12 +2016,15 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1601,12 +2048,15 @@
         <v>0.0416666666666667</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1630,12 +2080,15 @@
         <v>0.0232558139534884</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1659,12 +2112,15 @@
         <v>0.0697674418604651</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1688,12 +2144,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1717,12 +2176,15 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>65</v>
+      </c>
+      <c r="J23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1746,12 +2208,15 @@
         <v>0.0645161290322581</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="J24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1775,12 +2240,15 @@
         <v>0.0491803278688525</v>
       </c>
       <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1804,12 +2272,15 @@
         <v>0.0298507462686567</v>
       </c>
       <c r="I26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1833,12 +2304,15 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1862,12 +2336,15 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1891,12 +2368,15 @@
         <v>0.295774647887324</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>83</v>
+      </c>
+      <c r="J29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1920,12 +2400,15 @@
         <v>0.258064516129032</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1949,12 +2432,15 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>88</v>
+      </c>
+      <c r="J31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1978,12 +2464,15 @@
         <v>0.0857142857142857</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -2007,12 +2496,15 @@
         <v>0.0769230769230769</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2036,12 +2528,15 @@
         <v>0.259259259259259</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -2065,12 +2560,15 @@
         <v>0.238095238095238</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>99</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2094,12 +2592,15 @@
         <v>0.129032258064516</v>
       </c>
       <c r="I36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2123,12 +2624,15 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2152,12 +2656,15 @@
         <v>0.0206185567010309</v>
       </c>
       <c r="I38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2181,12 +2688,15 @@
         <v>0.0731707317073171</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2210,12 +2720,15 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>113</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2239,12 +2752,15 @@
         <v>0.338709677419355</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2268,12 +2784,15 @@
         <v>0.0649350649350649</v>
       </c>
       <c r="I42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2297,12 +2816,15 @@
         <v>0.0192307692307692</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2326,12 +2848,21 @@
         <v>0.230769230769231</v>
       </c>
       <c r="I44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>125</v>
+      </c>
+      <c r="J44" t="s">
+        <v>126</v>
+      </c>
+      <c r="K44" t="s">
+        <v>127</v>
+      </c>
+      <c r="L44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -2355,12 +2886,15 @@
         <v>0.25</v>
       </c>
       <c r="I45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2384,12 +2918,15 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2413,12 +2950,15 @@
         <v>0.3</v>
       </c>
       <c r="I47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2442,12 +2982,15 @@
         <v>0.103448275862069</v>
       </c>
       <c r="I48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2471,12 +3014,15 @@
         <v>0.0625</v>
       </c>
       <c r="I49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2500,12 +3046,15 @@
         <v>0.294117647058824</v>
       </c>
       <c r="I50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2529,12 +3078,15 @@
         <v>0.0238095238095238</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>147</v>
+      </c>
+      <c r="J51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2558,12 +3110,15 @@
         <v>0.2</v>
       </c>
       <c r="I52" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J52" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2587,12 +3142,15 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2616,12 +3174,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>155</v>
+      </c>
+      <c r="J54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2645,12 +3206,15 @@
         <v>0.024390243902439</v>
       </c>
       <c r="I55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2674,12 +3238,15 @@
         <v>0.125</v>
       </c>
       <c r="I56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="J56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>162</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2703,12 +3270,15 @@
         <v>0.252873563218391</v>
       </c>
       <c r="I57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2732,12 +3302,15 @@
         <v>0.00793650793650794</v>
       </c>
       <c r="I58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>165</v>
+      </c>
+      <c r="J58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2761,12 +3334,15 @@
         <v>0.0111111111111111</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2790,12 +3366,15 @@
         <v>0.0487804878048781</v>
       </c>
       <c r="I60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>170</v>
+      </c>
+      <c r="J60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2819,12 +3398,15 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>173</v>
+      </c>
+      <c r="J61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2848,12 +3430,15 @@
         <v>0.193548387096774</v>
       </c>
       <c r="I62" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>176</v>
+      </c>
+      <c r="J62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2877,12 +3462,15 @@
         <v>0.317073170731707</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="J63" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2906,12 +3494,15 @@
         <v>0.4</v>
       </c>
       <c r="I64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>182</v>
+      </c>
+      <c r="J64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2935,12 +3526,15 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>185</v>
+      </c>
+      <c r="J65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2964,12 +3558,15 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2993,12 +3590,15 @@
         <v>0.125</v>
       </c>
       <c r="I67" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -3022,12 +3622,15 @@
         <v>0.0857142857142857</v>
       </c>
       <c r="I68" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>192</v>
+      </c>
+      <c r="J68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3051,12 +3654,21 @@
         <v>0.0833333333333333</v>
       </c>
       <c r="I69" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>195</v>
+      </c>
+      <c r="J69" t="s">
+        <v>196</v>
+      </c>
+      <c r="K69" t="s">
+        <v>197</v>
+      </c>
+      <c r="L69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -3080,12 +3692,15 @@
         <v>0.0169491525423729</v>
       </c>
       <c r="I70" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>200</v>
+      </c>
+      <c r="J70" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>202</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -3109,12 +3724,15 @@
         <v>0.409090909090909</v>
       </c>
       <c r="I71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J71" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3138,12 +3756,15 @@
         <v>0.350877192982456</v>
       </c>
       <c r="I72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>205</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>207</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -3167,12 +3788,15 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>208</v>
+      </c>
+      <c r="J73" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3196,12 +3820,15 @@
         <v>0.0967741935483871</v>
       </c>
       <c r="I74" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J74" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -3225,12 +3852,15 @@
         <v>0.304878048780488</v>
       </c>
       <c r="I75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>214</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -3254,12 +3884,15 @@
         <v>0.304878048780488</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3283,12 +3916,15 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J77" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3312,12 +3948,15 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3341,12 +3980,15 @@
         <v>0.0434782608695652</v>
       </c>
       <c r="I79" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>221</v>
+      </c>
+      <c r="J79" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3370,12 +4012,15 @@
         <v>0.0681818181818182</v>
       </c>
       <c r="I80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3399,12 +4044,15 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>226</v>
+      </c>
+      <c r="J81" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3428,12 +4076,15 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>229</v>
+      </c>
+      <c r="J82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>231</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3457,12 +4108,15 @@
         <v>0.157894736842105</v>
       </c>
       <c r="I83" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>232</v>
+      </c>
+      <c r="J83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3486,12 +4140,15 @@
         <v>0.130434782608696</v>
       </c>
       <c r="I84" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>236</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3515,12 +4172,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3544,12 +4204,15 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J86" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>156</v>
+        <v>240</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3573,12 +4236,15 @@
         <v>0.0789473684210526</v>
       </c>
       <c r="I87" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J87" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>243</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3602,12 +4268,15 @@
         <v>0.0652173913043478</v>
       </c>
       <c r="I88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>244</v>
+      </c>
+      <c r="J88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3631,12 +4300,15 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>247</v>
+      </c>
+      <c r="J89" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>162</v>
+        <v>249</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3660,12 +4332,15 @@
         <v>0.0263157894736842</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>250</v>
+      </c>
+      <c r="J90" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3689,12 +4364,15 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>253</v>
+      </c>
+      <c r="J91" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3718,12 +4396,15 @@
         <v>0.4375</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>257</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3747,12 +4428,15 @@
         <v>0.115384615384615</v>
       </c>
       <c r="I93" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>258</v>
+      </c>
+      <c r="J93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3776,12 +4460,15 @@
         <v>0.0319148936170213</v>
       </c>
       <c r="I94" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>261</v>
+      </c>
+      <c r="J94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>172</v>
+        <v>263</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3805,12 +4492,15 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>264</v>
+      </c>
+      <c r="J95" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3834,12 +4524,15 @@
         <v>0.0217391304347826</v>
       </c>
       <c r="I96" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J96" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
-        <v>175</v>
+        <v>268</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3863,12 +4556,15 @@
         <v>0.032258064516129</v>
       </c>
       <c r="I97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>269</v>
+      </c>
+      <c r="J97" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>271</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3892,12 +4588,15 @@
         <v>0.0606060606060606</v>
       </c>
       <c r="I98" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>272</v>
+      </c>
+      <c r="J98" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>179</v>
+        <v>274</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3921,12 +4620,15 @@
         <v>0.0212765957446809</v>
       </c>
       <c r="I99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3950,12 +4652,15 @@
         <v>0.345454545454545</v>
       </c>
       <c r="I100" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>277</v>
+      </c>
+      <c r="J100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3979,12 +4684,15 @@
         <v>0.06</v>
       </c>
       <c r="I101" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>280</v>
+      </c>
+      <c r="J101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4008,12 +4716,15 @@
         <v>0.0238095238095238</v>
       </c>
       <c r="I102" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>283</v>
+      </c>
+      <c r="J102" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>285</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -4037,12 +4748,15 @@
         <v>0.117647058823529</v>
       </c>
       <c r="I103" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>286</v>
+      </c>
+      <c r="J103" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>189</v>
+        <v>288</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4066,12 +4780,15 @@
         <v>0.363636363636364</v>
       </c>
       <c r="I104" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J104" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>290</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4095,12 +4812,15 @@
         <v>0.342391304347826</v>
       </c>
       <c r="I105" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>291</v>
+      </c>
+      <c r="J105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4124,12 +4844,15 @@
         <v>0.130434782608696</v>
       </c>
       <c r="I106" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J106" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>295</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4153,12 +4876,15 @@
         <v>0.32</v>
       </c>
       <c r="I107" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J107" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -4182,12 +4908,15 @@
         <v>0.0285714285714286</v>
       </c>
       <c r="I108" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>298</v>
+      </c>
+      <c r="J108" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" t="s">
-        <v>199</v>
+        <v>300</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4211,12 +4940,15 @@
         <v>0.19047619047619</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>301</v>
+      </c>
+      <c r="J109" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>303</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4240,12 +4972,15 @@
         <v>0.027027027027027</v>
       </c>
       <c r="I110" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>304</v>
+      </c>
+      <c r="J110" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>306</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4269,12 +5004,15 @@
         <v>0.072463768115942</v>
       </c>
       <c r="I111" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>307</v>
+      </c>
+      <c r="J111" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4298,12 +5036,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>310</v>
+      </c>
+      <c r="J112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4327,12 +5068,21 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>313</v>
+      </c>
+      <c r="J113" t="s">
+        <v>314</v>
+      </c>
+      <c r="K113" t="s">
+        <v>315</v>
+      </c>
+      <c r="L113" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>317</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4356,12 +5106,15 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J114" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4385,12 +5138,15 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J115" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4414,12 +5170,15 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>322</v>
+      </c>
+      <c r="J116" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>209</v>
+        <v>324</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4443,12 +5202,15 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>211</v>
+        <v>326</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4472,12 +5234,15 @@
         <v>0.08</v>
       </c>
       <c r="I118" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>327</v>
+      </c>
+      <c r="J118" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4501,12 +5266,15 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="I119" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="J119" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>215</v>
+        <v>332</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4530,12 +5298,15 @@
         <v>0.113636363636364</v>
       </c>
       <c r="I120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>333</v>
+      </c>
+      <c r="J120" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4559,12 +5330,15 @@
         <v>0.142857142857143</v>
       </c>
       <c r="I121" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>336</v>
+      </c>
+      <c r="J121" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>338</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4588,12 +5362,15 @@
         <v>0.407407407407407</v>
       </c>
       <c r="I122" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>339</v>
+      </c>
+      <c r="J122" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4617,12 +5394,15 @@
         <v>0.125</v>
       </c>
       <c r="I123" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>342</v>
+      </c>
+      <c r="J123" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>222</v>
+        <v>344</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4646,12 +5426,15 @@
         <v>0.0851063829787234</v>
       </c>
       <c r="I124" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J124" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>346</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4675,12 +5458,15 @@
         <v>0.0952380952380952</v>
       </c>
       <c r="I125" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J125" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>225</v>
+        <v>348</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4704,12 +5490,15 @@
         <v>0.0606060606060606</v>
       </c>
       <c r="I126" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J126" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>350</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4733,12 +5522,15 @@
         <v>0.15</v>
       </c>
       <c r="I127" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>351</v>
+      </c>
+      <c r="J127" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4762,12 +5554,15 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J128" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>355</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4791,12 +5586,15 @@
         <v>0.0555555555555556</v>
       </c>
       <c r="I129" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>356</v>
+      </c>
+      <c r="J129" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>358</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4820,12 +5618,15 @@
         <v>0.111111111111111</v>
       </c>
       <c r="I130" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>359</v>
+      </c>
+      <c r="J130" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>361</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4849,7 +5650,10 @@
         <v>0.0512820512820513</v>
       </c>
       <c r="I131" t="s">
-        <v>233</v>
+        <v>362</v>
+      </c>
+      <c r="J131" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
